--- a/assets/Ref_Coordinates.xlsx
+++ b/assets/Ref_Coordinates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>X1</t>
   </si>
@@ -44,9 +44,6 @@
     <t>candidatename</t>
   </si>
   <si>
-    <t>fatherhusbandname</t>
-  </si>
-  <si>
     <t>Dateofbirth</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>experience1</t>
   </si>
   <si>
-    <t>experience2</t>
-  </si>
-  <si>
     <t>presentaddress</t>
   </si>
   <si>
@@ -83,15 +77,6 @@
     <t>AlternateNo</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>reference1</t>
-  </si>
-  <si>
-    <t>reference2</t>
-  </si>
-  <si>
     <t>aadhaarcard</t>
   </si>
   <si>
@@ -102,6 +87,30 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Centroid_X</t>
+  </si>
+  <si>
+    <t>Centroid_Y</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Fatherhusbandname</t>
+  </si>
+  <si>
+    <t>languageknown</t>
+  </si>
+  <si>
+    <t>referencescmob1</t>
+  </si>
+  <si>
+    <t>referencescmob2</t>
   </si>
 </sst>
 </file>
@@ -152,11 +161,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,19 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +478,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -479,8 +501,16 @@
       <c r="E2" s="1">
         <v>2600</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F23" si="0">(B2+D2)/2</f>
+        <v>1212.5</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G23" si="1">(C2+E2)/2</f>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,10 +526,18 @@
       <c r="E3" s="1">
         <v>480</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>870</v>
@@ -513,10 +551,18 @@
       <c r="E4" s="1">
         <v>580</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>870</v>
@@ -530,10 +576,18 @@
       <c r="E5" s="1">
         <v>675</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>870</v>
@@ -547,10 +601,18 @@
       <c r="E6" s="1">
         <v>775</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>870</v>
@@ -564,10 +626,18 @@
       <c r="E7" s="1">
         <v>875</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>827.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>1715</v>
@@ -581,10 +651,18 @@
       <c r="E8" s="1">
         <v>880</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>2022.5</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>831.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>870</v>
@@ -598,10 +676,18 @@
       <c r="E9" s="1">
         <v>975</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>1795</v>
@@ -615,10 +701,18 @@
       <c r="E10" s="1">
         <v>975</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>932.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>950</v>
@@ -632,10 +726,18 @@
       <c r="E11" s="1">
         <v>1095</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>950</v>
@@ -649,10 +751,18 @@
       <c r="E12" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>1147.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>870</v>
@@ -666,10 +776,18 @@
       <c r="E13" s="1">
         <v>1465</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>870</v>
@@ -683,10 +801,18 @@
       <c r="E14" s="1">
         <v>1740</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>870</v>
@@ -700,10 +826,18 @@
       <c r="E15" s="1">
         <v>1880</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>1812.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>1475</v>
@@ -717,10 +851,18 @@
       <c r="E16" s="1">
         <v>1880</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>870</v>
@@ -734,10 +876,18 @@
       <c r="E17" s="1">
         <v>1985</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>950</v>
@@ -751,10 +901,18 @@
       <c r="E18" s="1">
         <v>2115</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>2052.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>950</v>
@@ -768,10 +926,18 @@
       <c r="E19" s="1">
         <v>2260</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>565</v>
@@ -785,10 +951,18 @@
       <c r="E20" s="1">
         <v>2410</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>917.5</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>2367.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>1600</v>
@@ -802,10 +976,18 @@
       <c r="E21" s="1">
         <v>2415</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>2372.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>565</v>
@@ -814,15 +996,23 @@
         <v>2420</v>
       </c>
       <c r="D22" s="1">
-        <v>2330</v>
+        <v>1425</v>
       </c>
       <c r="E22" s="1">
         <v>2505</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>995</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>2462.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>565</v>
@@ -831,10 +1021,18 @@
         <v>2510</v>
       </c>
       <c r="D23" s="1">
-        <v>2330</v>
+        <v>1285</v>
       </c>
       <c r="E23" s="1">
         <v>2600</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>2555</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Ref_Coordinates.xlsx
+++ b/assets/Ref_Coordinates.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/Ref_Coordinates.xlsx
+++ b/assets/Ref_Coordinates.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Muthu_2023\Personal\NextStep\Hackathon\DeHaDo_AI\tokenwise-dehado-ai\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nextstep\MLChallenge\DeHaDo_AI\tokenwise-dehado-ai\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CDF7BA-B7C4-4F33-8598-69204FE7A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,12 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -449,20 +456,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -478,14 +485,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -501,16 +508,16 @@
       <c r="E2" s="1">
         <v>2600</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f t="shared" ref="F2:F23" si="0">(B2+D2)/2</f>
         <v>1212.5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f t="shared" ref="G2:G23" si="1">(C2+E2)/2</f>
         <v>1445</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,16 +533,16 @@
       <c r="E3" s="1">
         <v>480</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -551,16 +558,16 @@
       <c r="E4" s="1">
         <v>580</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,16 +583,16 @@
       <c r="E5" s="1">
         <v>675</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -601,16 +608,16 @@
       <c r="E6" s="1">
         <v>775</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>726</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,16 +633,16 @@
       <c r="E7" s="1">
         <v>875</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>827.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,16 +658,16 @@
       <c r="E8" s="1">
         <v>880</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>2022.5</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>831.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -676,16 +683,16 @@
       <c r="E9" s="1">
         <v>975</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,16 +708,16 @@
       <c r="E10" s="1">
         <v>975</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>2060</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>932.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -726,16 +733,16 @@
       <c r="E11" s="1">
         <v>1095</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>1640</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -751,16 +758,16 @@
       <c r="E12" s="1">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>1640</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>1147.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -776,16 +783,16 @@
       <c r="E13" s="1">
         <v>1465</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,16 +808,16 @@
       <c r="E14" s="1">
         <v>1740</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>1605</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -826,16 +833,16 @@
       <c r="E15" s="1">
         <v>1880</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>1812.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -851,16 +858,16 @@
       <c r="E16" s="1">
         <v>1880</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>1815</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -876,16 +883,16 @@
       <c r="E17" s="1">
         <v>1985</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>1935</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -901,16 +908,16 @@
       <c r="E18" s="1">
         <v>2115</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>1640</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>2052.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -926,16 +933,16 @@
       <c r="E19" s="1">
         <v>2260</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>1640</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>2190</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -949,18 +956,18 @@
         <v>1270</v>
       </c>
       <c r="E20" s="1">
-        <v>2410</v>
-      </c>
-      <c r="F20" s="3">
+        <v>2390</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>917.5</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="1"/>
-        <v>2367.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>2357.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -976,63 +983,63 @@
       <c r="E21" s="1">
         <v>2415</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>2372.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="C22" s="1">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="D22" s="1">
-        <v>1425</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="1">
-        <v>2505</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>995</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="1"/>
-        <v>2462.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2490</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="C23" s="1">
-        <v>2510</v>
+        <v>2520</v>
       </c>
       <c r="D23" s="1">
-        <v>1285</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="1">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>925</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
-        <v>2555</v>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
